--- a/segunda_parte/polinomio_newton/polinomio_newton.xlsx
+++ b/segunda_parte/polinomio_newton/polinomio_newton.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ezequiel\Desktop\UP\Calculo numerico\Codigo\segunda_parte\polinomio_newton\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3004AC33-4505-4930-A016-9E7BDCBDB8AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D057802-F3DD-43AA-9C1E-388129CC5891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{58034E83-6D5D-4892-B63A-A0F35097CCA0}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" activeTab="2" xr2:uid="{58034E83-6D5D-4892-B63A-A0F35097CCA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Polin newton 1" sheetId="1" r:id="rId1"/>
-    <sheet name="pol newton 2" sheetId="2" r:id="rId2"/>
+    <sheet name="newton simulacro" sheetId="3" r:id="rId2"/>
+    <sheet name="pol newton 2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>xi</t>
   </si>
@@ -183,13 +184,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,7 +530,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,23 +630,23 @@
         <v>-2</v>
       </c>
       <c r="B6" s="1">
-        <v>-9</v>
+        <v>9</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7.5</v>
       </c>
       <c r="D6" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>10.5</v>
       </c>
       <c r="E6" s="1">
         <f>(D6-D5)/(A6-A3)</f>
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="2">
         <f>(E6-E5)/(A6-A2)</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -687,7 +690,7 @@
       </c>
       <c r="G11">
         <f>SUM(D11:D15)</f>
-        <v>3.892799999999998</v>
+        <v>3.287999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -739,11 +742,11 @@
       </c>
       <c r="C15">
         <f>F6</f>
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="D15">
         <f t="shared" si="2"/>
-        <v>-2.4191999999999996</v>
+        <v>-3.0239999999999996</v>
       </c>
     </row>
   </sheetData>
@@ -752,6 +755,263 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F316682-EA02-44F0-98EE-ED8F01FB407B}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1.25</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.0711000000000004</v>
+      </c>
+      <c r="C3" s="2">
+        <f>(B3-B2)/(A3-A2)</f>
+        <v>12.284400000000002</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" ref="C4:C6" si="0">(B4-B3)/(A4-A3)</f>
+        <v>19.715599999999998</v>
+      </c>
+      <c r="D4" s="2">
+        <f>(C4-C3)/(A4-A2)</f>
+        <v>14.862399999999994</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>16.798999999999999</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="0"/>
+        <v>31.195999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D6" si="1">(C5-C4)/(A5-A3)</f>
+        <v>22.960799999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <f>(D5-D4)/(A5-A2)</f>
+        <v>10.797866666666673</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>48.804000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>35.216000000000008</v>
+      </c>
+      <c r="E6" s="1">
+        <f>(D6-D5)/(A6-A3)</f>
+        <v>16.340266666666679</v>
+      </c>
+      <c r="F6" s="2">
+        <f>(E6-E5)/(A6-A2)</f>
+        <v>5.542400000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>2.25</v>
+      </c>
+      <c r="B7" s="7">
+        <v>47.911700000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>2.5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>2.75</v>
+      </c>
+      <c r="B9" s="7">
+        <v>121.4508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>1.4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <f>B2</f>
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <f>B17*C17</f>
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <f>SUM(D17:D21)</f>
+        <v>6.7523558399999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <f>B16-A2</f>
+        <v>0.39999999999999991</v>
+      </c>
+      <c r="C18">
+        <f>C3</f>
+        <v>12.284400000000002</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="2">B18*C18</f>
+        <v>4.9137599999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B19">
+        <f>B18*(B16-A3)</f>
+        <v>5.9999999999999949E-2</v>
+      </c>
+      <c r="C19">
+        <f>D4</f>
+        <v>14.862399999999994</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.89174399999999887</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B20">
+        <f>B19*(B16-A4)</f>
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C20">
+        <f>E5</f>
+        <v>10.797866666666673</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>-6.4787200000000045E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B21">
+        <f>B20*(B16-A5)</f>
+        <v>2.1000000000000007E-3</v>
+      </c>
+      <c r="C21">
+        <f>F6</f>
+        <v>5.542400000000006</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>1.1639040000000017E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB42659-490E-4CD7-B372-E62E0AB6A83B}">
   <dimension ref="A1:J14"/>
   <sheetViews>
